--- a/config/chart_config.xlsx
+++ b/config/chart_config.xlsx
@@ -1,59 +1,275 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C13C6F2-8FC3-468A-B21E-0B4449320934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CE046-3F85-4E59-896D-34EC772B82A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3975" windowWidth="28800" windowHeight="15315" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="variables" sheetId="1" r:id="rId1"/>
+    <sheet name="plot_id_to_labels" sheetId="1" r:id="rId1"/>
+    <sheet name="plot_id_to_chart_type" sheetId="2" r:id="rId2"/>
+    <sheet name="plot_id_to_chart_position" sheetId="3" r:id="rId3"/>
+    <sheet name="variables" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="77">
+  <si>
+    <t>FED by fuel_1</t>
+  </si>
+  <si>
+    <t>Electricity_1</t>
+  </si>
+  <si>
+    <t>Industry_2</t>
+  </si>
+  <si>
+    <t>Renewable fuels VER2_2</t>
+  </si>
+  <si>
+    <t>Transport_2</t>
+  </si>
+  <si>
+    <t>Other fuels CN_1</t>
+  </si>
+  <si>
+    <t>Other fuels CN_2</t>
+  </si>
+  <si>
+    <t>Other fuels CN_3</t>
+  </si>
+  <si>
+    <t>Renewable fuels_2</t>
+  </si>
+  <si>
+    <t>Supply CN_1</t>
+  </si>
+  <si>
+    <t>Supply CN_2</t>
+  </si>
+  <si>
+    <t>Supply CN_4</t>
+  </si>
+  <si>
+    <t>Supply CN_6</t>
+  </si>
+  <si>
+    <t>Agriculture_1</t>
+  </si>
+  <si>
+    <t>Other fuels REF_1</t>
+  </si>
+  <si>
+    <t>Other fuels REF_2</t>
+  </si>
+  <si>
+    <t>Other fuels REF_3</t>
+  </si>
+  <si>
+    <t>FED by sector_1</t>
+  </si>
+  <si>
+    <t>FED by sector_3</t>
+  </si>
+  <si>
+    <t>Buildings_1</t>
+  </si>
+  <si>
+    <t>Buildings_2</t>
+  </si>
+  <si>
+    <t>Hydrogen_1</t>
+  </si>
+  <si>
+    <t>Supply REF_1</t>
+  </si>
+  <si>
+    <t>Supply REF_2</t>
+  </si>
+  <si>
+    <t>Supply REF_4</t>
+  </si>
+  <si>
+    <t>Coal_2</t>
+  </si>
+  <si>
+    <t>Supply_1</t>
+  </si>
+  <si>
+    <t>Supply_3</t>
+  </si>
+  <si>
+    <t>Crude &amp; NGL_2</t>
+  </si>
+  <si>
+    <t>Production_1</t>
+  </si>
+  <si>
+    <t>Coal by type_1</t>
+  </si>
+  <si>
+    <t>Coal by type_2</t>
+  </si>
+  <si>
+    <t>Coal by type_3</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Bunkers</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>TFEC</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Metallurgical coal</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Net trade</t>
+  </si>
+  <si>
+    <t>Crude oil &amp; NGL</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Thermal coal</t>
+  </si>
+  <si>
+    <t>Non-specified</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Stock change</t>
+  </si>
+  <si>
+    <t>Refined products</t>
+  </si>
+  <si>
+    <t>Non-energy</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Own-use and losses</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>TPES</t>
+  </si>
+  <si>
+    <t>Renewables</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Other renewables</t>
+  </si>
+  <si>
+    <t>area_chart</t>
+  </si>
+  <si>
+    <t>above_table</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>col_chart_years</t>
+  </si>
   <si>
     <t>chart_height</t>
   </si>
   <si>
-    <t>number of excel rows before the data is written (can change this)</t>
-  </si>
-  <si>
-    <t>col_chart_years</t>
-  </si>
-  <si>
     <t>['2000', '2010', '2018', '2020', '2030', '2040', '2050']</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,18 +293,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -111,44 +345,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -176,14 +410,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -211,6 +462,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -222,183 +490,1440 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/config/chart_config.xlsx
+++ b/config/chart_config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CE046-3F85-4E59-896D-34EC772B82A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233592B-3EDB-47A3-9DC8-DD915ECC5D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3975" windowWidth="28800" windowHeight="15315" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plot_id_to_labels" sheetId="1" r:id="rId1"/>
-    <sheet name="plot_id_to_chart_type" sheetId="2" r:id="rId2"/>
-    <sheet name="plot_id_to_chart_position" sheetId="3" r:id="rId3"/>
+    <sheet name="table_id_to_labels" sheetId="1" r:id="rId1"/>
+    <sheet name="table_id_to_chart_type" sheetId="2" r:id="rId2"/>
+    <sheet name="table_id_to_chart_position" sheetId="3" r:id="rId3"/>
     <sheet name="variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="79">
   <si>
     <t>FED by fuel_1</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Other renewables</t>
   </si>
   <si>
-    <t>area_chart</t>
-  </si>
-  <si>
     <t>above_table</t>
   </si>
   <si>
@@ -254,6 +251,15 @@
   </si>
   <si>
     <t>['2000', '2010', '2018', '2020', '2030', '2040', '2050']</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>bar</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1330,135 +1338,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1466,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1474,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1482,7 +1522,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1490,7 +1530,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1498,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1506,7 +1546,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1514,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1522,7 +1562,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1530,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1538,7 +1578,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1546,7 +1586,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1554,7 +1594,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1562,7 +1602,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1570,7 +1610,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1578,7 +1618,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1586,7 +1626,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1594,7 +1634,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1602,7 +1642,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1612,135 +1652,170 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1748,7 +1823,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1756,7 +1831,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1764,7 +1839,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1772,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1780,7 +1855,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1788,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1796,7 +1871,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1804,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1812,7 +1887,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1820,7 +1895,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1828,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1836,7 +1911,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1844,7 +1919,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1852,7 +1927,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1860,7 +1935,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1868,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1876,7 +1951,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1884,7 +1959,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1896,23 +1971,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -1920,10 +1995,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/config/chart_config.xlsx
+++ b/config/chart_config.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\9th_edition_visualisation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233592B-3EDB-47A3-9DC8-DD915ECC5D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE79B5-39D4-4AD4-A499-C7985454C76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_id_to_labels" sheetId="1" r:id="rId1"/>
     <sheet name="table_id_to_chart_type" sheetId="2" r:id="rId2"/>
-    <sheet name="table_id_to_chart_position" sheetId="3" r:id="rId3"/>
-    <sheet name="variables" sheetId="4" r:id="rId4"/>
+    <sheet name="variables" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="80">
   <si>
     <t>FED by fuel_1</t>
   </si>
@@ -235,21 +234,12 @@
     <t>Other renewables</t>
   </si>
   <si>
-    <t>above_table</t>
-  </si>
-  <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
     <t>Unnamed: 1</t>
   </si>
   <si>
-    <t>col_chart_years</t>
-  </si>
-  <si>
-    <t>chart_height</t>
-  </si>
-  <si>
     <t>['2000', '2010', '2018', '2020', '2030', '2040', '2050']</t>
   </si>
   <si>
@@ -260,6 +250,18 @@
   </si>
   <si>
     <t>bar</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>bar_years</t>
+  </si>
+  <si>
+    <t>width_pixels</t>
+  </si>
+  <si>
+    <t>height_pixels</t>
   </si>
 </sst>
 </file>
@@ -664,7 +666,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1340,11 +1342,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
@@ -1377,617 +1382,366 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J34">
+    <sortCondition ref="A1:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -1995,13 +1749,30 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>